--- a/Vocabularies/CA/ca-dwr-g.xlsx
+++ b/Vocabularies/CA/ca-dwr-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/Common Tools/Glossary/Vocabularies/CA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/CA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C3BC0-E7B3-B743-833D-7256F0683A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF544CB7-A797-2846-B00D-3EEA76DEBD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37560" yWindow="1480" windowWidth="35640" windowHeight="19720" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:H547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10753,7 +10753,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
